--- a/Test.xlsx
+++ b/Test.xlsx
@@ -187,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <x:autoFilter ref="A1:K8"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0">
+  <x:autoFilter ref="A1:K15"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="Scenario ID"/>
     <x:tableColumn id="2" name="Test case Name"/>
@@ -494,7 +494,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K8"/>
+  <x:dimension ref="A1:K15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -677,6 +677,133 @@
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
     </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s"/>
+      <x:c r="H9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s"/>
+      <x:c r="H10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s"/>
+      <x:c r="H11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s"/>
+      <x:c r="H12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s"/>
+      <x:c r="H13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s"/>
+      <x:c r="H14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s"/>
+      <x:c r="H15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
